--- a/Sg_Maven_Project/ExecutionController/Controller.xlsx
+++ b/Sg_Maven_Project/ExecutionController/Controller.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ProjectName</t>
   </si>
@@ -83,17 +83,13 @@
   </si>
   <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,38 +120,8 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,21 +130,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625">
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <bgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -210,19 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +480,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,8 +521,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,11 +569,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,9 +604,9 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -676,9 +621,9 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -695,7 +640,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -719,11 +664,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
